--- a/medicine/Enfance/Les_Trois_Jeunes_Détectives/Les_Trois_Jeunes_Détectives.xlsx
+++ b/medicine/Enfance/Les_Trois_Jeunes_Détectives/Les_Trois_Jeunes_Détectives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
+          <t>Les_Trois_Jeunes_Détectives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Trois Jeunes Détectives est une série américaine de quarante-trois romans policiers pour la jeunesse éditée aux États-Unis de 1964 à 1987 sous le titre Alfred Hitchcock and the Three Investigators puis The Three Investigators.
-En France, la série a paru pour la première fois en 1966 dans la collection Bibliothèque verte des éditions Hachette. Trente-sept titres ont été traduits à ce jour[1]. Quelques titres ont également été publiés dans la collection Le Livre de poche dans les années 1980.
+En France, la série a paru pour la première fois en 1966 dans la collection Bibliothèque verte des éditions Hachette. Trente-sept titres ont été traduits à ce jour. Quelques titres ont également été publiés dans la collection Le Livre de poche dans les années 1980.
 La série est toujours éditée de nos jours dans cette même collection et toujours sous le nom d'auteur Alfred Hitchcock.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
+          <t>Les_Trois_Jeunes_Détectives</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aux États-Unis, la série est d'abord intitulée Alfred Hitchcock and the Three Investigators (littéralement : Alfred Hitchcock et les trois enquêteurs), puis le titre devient simplement The Three Investigators dès le volume 28[2] (L'Aveugle qui en mettait plein la vue), après la mort de Hitchcock.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aux États-Unis, la série est d'abord intitulée Alfred Hitchcock and the Three Investigators (littéralement : Alfred Hitchcock et les trois enquêteurs), puis le titre devient simplement The Three Investigators dès le volume 28 (L'Aveugle qui en mettait plein la vue), après la mort de Hitchcock.
 En France, la mention Alfred Hitchcock and the Three Investigators n'a pas été traduite et n'apparaît sur aucun volume. Sur les éditions françaises, le nom de l'auteur était et demeure, sur les rééditions récentes, Alfred Hitchcock, le célèbre cinéaste américain. En réalité, le créateur de la série et auteur principal (il y a eu plusieurs auteurs) est Robert Arthur, Jr.. Alfred Hitchcock n'a pris aucune part à l'écriture des romans, pas même aux préfaces qui sont supposées être « signées » de sa main (les préfaces ont été rédigées par les divers auteurs). Hitchcock « présente » seulement la série, comme il prêtait son nom à des recueils de nouvelles policières ou d'angoisse. Cette idée de Robert Arthur d'utiliser ce fameux patronyme avait pour but de mieux attirer l'attention du public. La maison d'édition Random House payait pour utiliser légalement le nom du cinéaste. À la « vraie » mort de ce dernier en 1980, les Hitchcock demandant davantage d'argent aux éditions Random House, Alfred Hitchcock fut remplacé par un personnage fictif : Hector Sebastian. Les dernières éditions américaines ont changé les volumes de sorte que Hitchcock n'apparaisse plus et soit remplacé par Hector Sebastian.
 Les divers auteurs de la série sont les suivants :
 Robert Arthur, Jr.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
+          <t>Les_Trois_Jeunes_Détectives</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hannibal Jones (Jupiter Jones en version originale), Peter Crentch (Peter Crenshaw) et Bob Andy (Robert « Bob » Andrews) sont un trio de jeunes adolescents vivant dans la ville fictive de Rocky en Californie. Ils travaillent comme détectives privés durant leur temps libre. Se faisant connaître comme Les trois jeunes détectives, ils enquêtent sur des affaires allant du surnaturel aux sombres intrigues criminelles.
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
+          <t>Les_Trois_Jeunes_Détectives</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,17 +602,98 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Les trois jeunes détectives
-Symbole et quartier général
-Le symbole utilisé par ces détectives est le point d'interrogation placé sur les cartes de visite (trois points d'interrogation consécutifs). Cette particularité suscite très souvent la curiosité des gens auxquels sont montrées les cartes : on leur demande la signification des trois points d'interrogation - est-ce dû à leur propre doute en leurs capacités ? Le trio répond invariablement que cela représente le mystère et les énigmes qu'ils ont à résoudre.
+          <t>Les trois jeunes détectives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Symbole et quartier général</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le symbole utilisé par ces détectives est le point d'interrogation placé sur les cartes de visite (trois points d'interrogation consécutifs). Cette particularité suscite très souvent la curiosité des gens auxquels sont montrées les cartes : on leur demande la signification des trois points d'interrogation - est-ce dû à leur propre doute en leurs capacités ? Le trio répond invariablement que cela représente le mystère et les énigmes qu'ils ont à résoudre.
 La devise des trois jeunes détectives est : « Détections en tout genre » (ou selon le volume, « Enquêtes en tout genre »).
 Ils tiennent fréquemment conseil au sein de leur quartier général, sorte de « planque » secrète. Ce quartier général est une roulotte dissimulée par les objets qui encombrent le fond du magasin de brocante de l'oncle d'Hannibal. Pour y accéder, Bob emprunte successivement l'entrée secrète appelée Porte verte numéro 1 (une porte dissimulée dans la palissade du fond de la propriété décorée d'une fresque représentant une mer en furie) menant à l'atelier, puis le Tunnel numéro 2, un large tuyau dont l'entrée est cachée au fond de l'atelier.
-Les trois héros
-Hannibal Jones (Jupiter Jones) : détective en chef. Chef de la bande, il est très intelligent et ne s'en cache pas. Il a un problème de surpoids qui attire parfois les moqueries, ce qu'il déteste. Orphelin, il vit avec sa tante Mathilda et son oncle Titus qui s'occupent d'une brocante nommée Le Paradis de la Brocante (The Jones Salvage Yard en version originale). Certains, comme Skinny Norris, le surnomment « Gros plein de soupe », surnom qu'il déteste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Trois_Jeunes_Détectives</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Jeunes_D%C3%A9tectives</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les trois jeunes détectives</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les trois héros</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hannibal Jones (Jupiter Jones) : détective en chef. Chef de la bande, il est très intelligent et ne s'en cache pas. Il a un problème de surpoids qui attire parfois les moqueries, ce qu'il déteste. Orphelin, il vit avec sa tante Mathilda et son oncle Titus qui s'occupent d'une brocante nommée Le Paradis de la Brocante (The Jones Salvage Yard en version originale). Certains, comme Skinny Norris, le surnomment « Gros plein de soupe », surnom qu'il déteste.
 Peter Crentch (Peter Crenshaw) : détective adjoint. Le sportif de la bande est physiquement musclé, ce qui est toujours utile. Malgré cela, il a tendance à être peureux. Il sait tout de même faire montre de courage en cas d'urgence. Son père travaille au cinéma pour les effets spéciaux. Son expression favorite en cas de grande pression est « Mazette ! ».
-Bob Andy (Bob Andrews) : il s'occupe des archives et des recherches (en anglais : « Records and Research »). Fluet, portant lunettes et souvent plongé dans les livres, il est un peu l'archétype du nerd (« intello »). Son père est journaliste et sa mère est décrite comme jeune et jolie.
-Personnages secondaires
-Alfred Hitchcock : le célèbre cinéaste fut le premier client des détectives, puis devint une sorte de mentor pour eux pendant les trente premiers volumes, « préfaçant » chacune de leurs aventures (en réalité, la préface est de l'auteur) et retrouvant les héros à la fin pour discuter de l'affaire et de son dénouement. La maison d'édition Random House payait pour utiliser légalement son nom. À sa « vraie » mort en 1980, les Hitchcock demandant encore plus d'argent, il fut remplacé par un personnage fictif, Hector Sebastian. Les dernières éditions américaines ont changé les volumes de sorte que Hitchcock n'apparaisse plus et soit remplacé par Hector Sebastian.
+Bob Andy (Bob Andrews) : il s'occupe des archives et des recherches (en anglais : « Records and Research »). Fluet, portant lunettes et souvent plongé dans les livres, il est un peu l'archétype du nerd (« intello »). Son père est journaliste et sa mère est décrite comme jeune et jolie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Trois_Jeunes_Détectives</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Jeunes_D%C3%A9tectives</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alfred Hitchcock : le célèbre cinéaste fut le premier client des détectives, puis devint une sorte de mentor pour eux pendant les trente premiers volumes, « préfaçant » chacune de leurs aventures (en réalité, la préface est de l'auteur) et retrouvant les héros à la fin pour discuter de l'affaire et de son dénouement. La maison d'édition Random House payait pour utiliser légalement son nom. À sa « vraie » mort en 1980, les Hitchcock demandant encore plus d'argent, il fut remplacé par un personnage fictif, Hector Sebastian. Les dernières éditions américaines ont changé les volumes de sorte que Hitchcock n'apparaisse plus et soit remplacé par Hector Sebastian.
 Hector Sebastian : un ancien détective devenu écrivain, auteur de romans best-sellers. Il prit la place de Hitchcock dans la série dès le volume L'Aveugle qui en mettait plein la vue.
 Titus Jones : oncle de Hannibal et propriétaire du Paradis de la Brocante, c'est un petit homme moustachu jovial qui préfère acheter pour son affaire des objets qui le passionnent personnellement plutôt que des choses pratiques.
 Mathilda Jones : tante d'Hannibal et femme de Titus, c'est une femme forte et sévère qui, malgré son apparence dure, a très bon fond (dans certains volumes de la version française, elle s'appelle Mathilde).
@@ -608,36 +705,38 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Trois_Jeunes_Détectives</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Trois_Jeunes_D%C3%A9tectives</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des titres parus en France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Note : la première date est celle de la première édition française[1], la deuxième celle de la première édition américaine.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Note : la première date est celle de la première édition française, la deuxième celle de la première édition américaine.
 écrit par Robert Arthur
 1966 : Au rendez-vous des revenants (The Secret of Terror Castle, 1964). Traduit par Vladimir Volkoff, illustrations de Jacques Poirier.
-1967 : Le Perroquet qui bégayait (The Mystery of the Stuttering Parrot, 1964). Traduit par Tatiana Bellini, illustrations de Jacques Poirier, puis de Madeleine Prévost (édition Hachette 1977[3]. ).
+1967 : Le Perroquet qui bégayait (The Mystery of the Stuttering Parrot, 1964). Traduit par Tatiana Bellini, illustrations de Jacques Poirier, puis de Madeleine Prévost (édition Hachette 1977. ).
 1967 : La Momie qui chuchotait (The Mystery of the Whispering Mummy, 1965). Traduit par Vladimir Volkoff, illustrations de Jacques Poirier.
 1968 : Le Chinois qui verdissait (The Mystery of the Green Ghost, 1965). Traduit par Tatiana Bellini, illustrations de Jacques Poirier.
 1969 : L'arc-en-ciel a pris la fuite (The Mystery of the Vanishing Treasure, 1965). Traduit par Tatiana Bellini, illustrations de Jacques Poirier.
@@ -710,69 +809,107 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Trois_Jeunes_Détectives</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Trois_Jeunes_D%C3%A9tectives</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la version originale, la plupart des titres commençaient par les mots « The Mystery of... » (Le Mystère de...) ou « The Secret of... » (Le Secret de...). La plupart des titres en version française tentent, eux, de faire des jeux de mots.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans la version originale, la plupart des titres commençaient par les mots « The Mystery of... » (Le Mystère de...) ou « The Secret of... » (Le Secret de...). La plupart des titres en version française tentent, eux, de faire des jeux de mots.
 Depuis 1989 aux États-Unis, les derniers volumes parus (onze titres) montrent les protagonistes plus âgés (dix-sept ans au lieu de quatorze ans dans les premiers romans), ayant plus de préoccupations d'adolescents et dont les aventures comportent plus d'action. Rebaptisée The Three Investigators — Crimebusters Series, la série a pris fin en 1990.
-Deux films produits ont également été tournés en 2007 et 2009
-Le phénomène « Die Drei ??? » en Allemagne
-La série est particulièrement populaire en Allemagne (titre allemand : Die drei ??? ou Die Drei Fragezeichen, littéralement : « Les Trois ??? »). Dans cette traduction, les personnages Jupiter Jones et Pete Crenshaw sont respectivement renommés « Justus Jonas » et « Peter Shaw ». Le chauffeur quant à lui est appelé « Morton ».
+Deux films produits ont également été tournés en 2007 et 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Trois_Jeunes_Détectives</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Jeunes_D%C3%A9tectives</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le phénomène « Die Drei ??? » en Allemagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est particulièrement populaire en Allemagne (titre allemand : Die drei ??? ou Die Drei Fragezeichen, littéralement : « Les Trois ??? »). Dans cette traduction, les personnages Jupiter Jones et Pete Crenshaw sont respectivement renommés « Justus Jonas » et « Peter Shaw ». Le chauffeur quant à lui est appelé « Morton ».
 En parallèle des traductions des épisodes écrits par les auteurs américains, les auteurs allemands ont produit de nombreuses histoires, à un rythme soutenu de six épisodes par an, atteignant le chiffre de 179 livres en 2014. Depuis 1990, les traductions se sont d'ailleurs faites de l'allemand vers l'anglais pour les huit derniers épisodes.
-Une version audio des épisodes (Hörspiele) est également produite et crée un véritable engouement depuis 1979. De nombreux enregistrements ont ainsi été primés disques d'Or ou Platinum par l'Association Fédérale Allemande de l'Industrie Musicale. En tout, jusqu'en 2013, plus de 45 millions de copies des épisodes audios ont été vendus et les livres se sont écoulés à plus de 16 millions d'exemplaires, rien qu'en Allemagne[4]. Une étude conduite par l'éditeur européen de la série conclut que les fans auraient aujourd'hui en moyenne entre 20 et 40 ans[5].
-Bien qu'âgés de 14 à 16 ans à leurs débuts, les trois acteurs principaux, Oliver Rohrbeck (de), Jens Wawrczeck (de) et Andreas Fröhlich (de) prêtent leurs voix depuis 1979 et sont devenus des vedettes en Allemagne. Ainsi, en plus des épisodes enregistrés, ils produisent des spectacles au cours desquels ils réalisent des histoires en direct devant le public. Le phénomène continue de croître si l'on en croit le record d'affluence enregistré en 2010 à la Waldbühne (Berlin) devant 15 200 personnes[6], et que ce record a été battu au cours du spectacle Phonophobia - Symphonie de la peur en 2014, avec une affluence de 20 000 personnes[7].
+Une version audio des épisodes (Hörspiele) est également produite et crée un véritable engouement depuis 1979. De nombreux enregistrements ont ainsi été primés disques d'Or ou Platinum par l'Association Fédérale Allemande de l'Industrie Musicale. En tout, jusqu'en 2013, plus de 45 millions de copies des épisodes audios ont été vendus et les livres se sont écoulés à plus de 16 millions d'exemplaires, rien qu'en Allemagne. Une étude conduite par l'éditeur européen de la série conclut que les fans auraient aujourd'hui en moyenne entre 20 et 40 ans.
+Bien qu'âgés de 14 à 16 ans à leurs débuts, les trois acteurs principaux, Oliver Rohrbeck (de), Jens Wawrczeck (de) et Andreas Fröhlich (de) prêtent leurs voix depuis 1979 et sont devenus des vedettes en Allemagne. Ainsi, en plus des épisodes enregistrés, ils produisent des spectacles au cours desquels ils réalisent des histoires en direct devant le public. Le phénomène continue de croître si l'on en croit le record d'affluence enregistré en 2010 à la Waldbühne (Berlin) devant 15 200 personnes, et que ce record a été battu au cours du spectacle Phonophobia - Symphonie de la peur en 2014, avec une affluence de 20 000 personnes.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Trois_Jeunes_D%C3%A9tectives</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Trois_Jeunes_Détectives</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Trois_Jeunes_D%C3%A9tectives</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Die drei ??? – Das Geheimnis der Geisterinsel, 2007, film allemand de Florian Baxmeyer.
 Die drei ??? – Das verfluchte Schloss, 2009, film allemand de Florian Baxmeyer.</t>
